--- a/weightstest/weighted_aal_worked_example.xlsx
+++ b/weightstest/weighted_aal_worked_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64_2\home\Joh\ktest_new4\weightstest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA7ECDC-727F-49CC-9BAF-2B6649F15F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BEA79-23A7-4CEB-B2F5-928941B15124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49FBF473-87A6-4AEA-944D-6FF6B9CE3015}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId2"/>
+    <pivotCache cacheId="66" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -312,6 +312,156 @@
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -412,156 +562,6 @@
         <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -747,8 +747,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2726837" cy="658514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -790,6 +790,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -833,7 +834,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -846,7 +847,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -860,7 +861,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -872,7 +873,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -888,7 +889,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -904,7 +905,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -920,7 +921,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -932,7 +933,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -946,7 +947,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -962,7 +963,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -977,7 +978,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -990,7 +991,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1004,7 +1005,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1020,7 +1021,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1033,7 +1034,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1047,7 +1048,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1063,7 +1064,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1077,7 +1078,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1091,7 +1092,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1106,7 +1107,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -1122,7 +1123,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -1138,7 +1139,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -1150,7 +1151,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -1164,7 +1165,7 @@
                                                   <a:schemeClr val="tx1"/>
                                                 </a:solidFill>
                                                 <a:effectLst/>
-                                                <a:latin typeface="+mn-lt"/>
+                                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                 <a:ea typeface="+mn-ea"/>
                                                 <a:cs typeface="+mn-cs"/>
                                               </a:rPr>
@@ -1180,7 +1181,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1193,7 +1194,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1207,7 +1208,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1223,7 +1224,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1236,7 +1237,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1250,7 +1251,7 @@
                                                       <a:schemeClr val="tx1"/>
                                                     </a:solidFill>
                                                     <a:effectLst/>
-                                                    <a:latin typeface="+mn-lt"/>
+                                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                                     <a:ea typeface="+mn-ea"/>
                                                     <a:cs typeface="+mn-cs"/>
                                                   </a:rPr>
@@ -1270,7 +1271,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1292,7 +1293,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1440,8 +1441,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="939488" cy="459613"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1483,6 +1484,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1516,7 +1518,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1532,7 +1534,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1544,7 +1546,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1558,7 +1560,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1574,7 +1576,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1587,7 +1589,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1601,7 +1603,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1617,7 +1619,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1630,7 +1632,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1644,7 +1646,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1662,7 +1664,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1786,8 +1788,8 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="645561" cy="459613"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1829,6 +1831,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1844,7 +1847,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1860,7 +1863,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1872,7 +1875,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1886,7 +1889,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1902,7 +1905,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1915,7 +1918,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1929,7 +1932,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1959,7 +1962,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -2089,8 +2092,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2899640" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2132,6 +2135,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2302,7 +2306,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2384,8 +2388,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1587101" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2427,6 +2431,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2549,7 +2554,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2619,8 +2624,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1802673" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2662,6 +2667,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2760,7 +2766,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2830,8 +2836,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562286" cy="319575"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2873,6 +2879,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2885,7 +2892,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2897,7 +2904,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2911,7 +2918,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2924,7 +2931,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2938,7 +2945,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2950,7 +2957,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2962,7 +2969,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2974,7 +2981,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2986,7 +2993,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3002,7 +3009,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3192,7 +3199,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B82C75AF-7487-4F24-B140-00B87449CB47}" name="PivotTable2" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="period">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B82C75AF-7487-4F24-B140-00B87449CB47}" name="PivotTable2" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="period">
   <location ref="J16:M22" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3270,29 +3277,29 @@
     <dataField name="x" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="19">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="7">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -3302,7 +3309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -3317,7 +3324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -3332,7 +3339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3349,7 +3356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E191E8E-3929-4D00-BA8A-900FB3B68923}" name="PivotTable1" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="period">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E191E8E-3929-4D00-BA8A-900FB3B68923}" name="PivotTable1" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="period">
   <location ref="J7:M9" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3472,29 +3479,29 @@
     <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="17">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="15">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="0"/>
@@ -3504,7 +3511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -3515,7 +3522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="0" selected="0"/>
@@ -3526,7 +3533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3842,7 +3849,7 @@
   <dimension ref="B1:X37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,7 +4003,7 @@
         <v>2335.7429200000001</v>
       </c>
       <c r="G5" s="8">
-        <f>VLOOKUP(C5,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" ref="G5:G15" si="0">VLOOKUP(C5,$C$20:$G$23,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H5" s="13"/>
@@ -4035,7 +4042,7 @@
         <v>5044.6103519999997</v>
       </c>
       <c r="G6" s="8">
-        <f>VLOOKUP(C6,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
@@ -4071,7 +4078,7 @@
         <v>4967.4785160000001</v>
       </c>
       <c r="G7" s="8">
-        <f>VLOOKUP(C7,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H7" s="13"/>
@@ -4119,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>VLOOKUP(C8,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H8" s="13"/>
@@ -4170,7 +4177,7 @@
         <v>259.40802000000002</v>
       </c>
       <c r="G9" s="8">
-        <f>VLOOKUP(C9,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
@@ -4187,15 +4194,15 @@
         <v>4967.4785160000001</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9" si="0">VLOOKUP(J9,$C$26:$D$36,2,FALSE)/$L$3</f>
+        <f t="shared" ref="N9" si="1">VLOOKUP(J9,$C$26:$D$36,2,FALSE)/$L$3</f>
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9" si="1">N9*M9</f>
+        <f t="shared" ref="O9" si="2">N9*M9</f>
         <v>0</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" ref="P9" si="2">N9*M9^2</f>
+        <f t="shared" ref="P9" si="3">N9*M9^2</f>
         <v>0</v>
       </c>
       <c r="Q9" s="8"/>
@@ -4221,7 +4228,7 @@
         <v>6648.3754879999997</v>
       </c>
       <c r="G10" s="8">
-        <f>VLOOKUP(C10,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="13"/>
@@ -4255,7 +4262,7 @@
         <v>7204.4360349999997</v>
       </c>
       <c r="G11" s="8">
-        <f>VLOOKUP(C11,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="13"/>
@@ -4280,7 +4287,7 @@
         <v>9646.7333980000003</v>
       </c>
       <c r="G12" s="8">
-        <f>VLOOKUP(C12,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
@@ -4316,7 +4323,7 @@
         <v>21298.771484000001</v>
       </c>
       <c r="G13" s="8">
-        <f>VLOOKUP(C13,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H13" s="13"/>
@@ -4362,7 +4369,7 @@
         <v>15665.952148</v>
       </c>
       <c r="G14" s="8">
-        <f>VLOOKUP(C14,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="13"/>
@@ -4376,20 +4383,20 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8">
-        <f>SUM(O17:O18)</f>
-        <v>564.48878172000002</v>
+        <f>SUM(O17:O22)</f>
+        <v>950.35811764000005</v>
       </c>
       <c r="P14" s="8">
-        <f>SUM(P17:P18)</f>
-        <v>3984854.8630321324</v>
+        <f>SUM(P17:P22)</f>
+        <v>7707233.4731156779</v>
       </c>
       <c r="Q14" s="20">
         <f>O14</f>
-        <v>564.48878172000002</v>
+        <v>950.35811764000005</v>
       </c>
       <c r="R14" s="21">
         <f>SQRT((P14-O14^2)*(L15/(L15-1)))</f>
-        <v>1934.173682750675</v>
+        <v>2634.9404441535594</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="8"/>
@@ -4412,7 +4419,7 @@
         <v>23843.419922000001</v>
       </c>
       <c r="G15" s="8">
-        <f>VLOOKUP(C15,$C$20:$G$23,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H15" s="13"/>
@@ -4539,15 +4546,15 @@
         <v>7204.4360349999997</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" ref="N18:N22" si="3">VLOOKUP(J18,$C$26:$D$36,2,FALSE)/$L$13</f>
+        <f t="shared" ref="N18:N22" si="4">VLOOKUP(J18,$C$26:$D$36,2,FALSE)/$L$13</f>
         <v>0.04</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" ref="O18:O22" si="4">N18*M18</f>
+        <f t="shared" ref="O18:O22" si="5">N18*M18</f>
         <v>288.17744140000002</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" ref="P18:P22" si="5">N18*M18^2</f>
+        <f t="shared" ref="P18:P22" si="6">N18*M18^2</f>
         <v>2076155.9432962609</v>
       </c>
       <c r="Q18" s="8"/>
@@ -4589,15 +4596,15 @@
         <v>9646.7333980000003</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>385.86933592000003</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3722378.6100835456</v>
       </c>
       <c r="Q19" s="8"/>
@@ -4639,15 +4646,15 @@
         <v>21298.771484000001</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="O20" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q20" s="8"/>
@@ -4689,15 +4696,15 @@
         <v>15665.952148</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="O21" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q21" s="8"/>
@@ -4739,15 +4746,15 @@
         <v>23843.419922000001</v>
       </c>
       <c r="N22" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="O22" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q22" s="18"/>
